--- a/Documents/Projektmanagement/Analyse_Projektmanagement.xlsx
+++ b/Documents/Projektmanagement/Analyse_Projektmanagement.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -218,13 +218,13 @@
     <t>E, EBCB, ECC</t>
   </si>
   <si>
-    <t>E, EBAA, EBCC</t>
-  </si>
-  <si>
-    <t>E, ECC, ECD, G</t>
-  </si>
-  <si>
-    <t>E, EBCA, ECA</t>
+    <t>E, EBB, ECD</t>
+  </si>
+  <si>
+    <t>E, EBC, ECAA</t>
+  </si>
+  <si>
+    <t>E, EBC, EBCA</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -586,83 +586,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,11 +606,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -705,11 +627,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -717,38 +720,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <outline val="0"/>
@@ -801,24 +777,51 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:F9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:F9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="C3:F9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Phase" dataDxfId="5"/>
-    <tableColumn id="2" name="Iteration" dataDxfId="4"/>
-    <tableColumn id="3" name="Ziele" dataDxfId="3"/>
-    <tableColumn id="5" name="Nicht erreichte Punkte" dataDxfId="2"/>
+    <tableColumn id="1" name="Phase" dataDxfId="3"/>
+    <tableColumn id="2" name="Iteration" dataDxfId="2"/>
+    <tableColumn id="3" name="Ziele" dataDxfId="1"/>
+    <tableColumn id="5" name="Nicht erreichte Punkte" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -867,7 +870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -902,7 +905,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1113,11 +1116,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16:AK22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22:T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -1141,106 +1144,106 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="42" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="3:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="3:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="J14" s="1">
@@ -1282,37 +1285,37 @@
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="I16" s="29"/>
-      <c r="J16" s="57">
+      <c r="J16" s="32">
         <v>41905</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="33">
         <v>41912</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="34">
         <v>41919</v>
       </c>
-      <c r="M16" s="60">
+      <c r="M16" s="35">
         <v>41926</v>
       </c>
-      <c r="N16" s="58">
+      <c r="N16" s="33">
         <v>41933</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="34">
         <v>41940</v>
       </c>
-      <c r="P16" s="60">
+      <c r="P16" s="35">
         <v>41947</v>
       </c>
-      <c r="Q16" s="60">
+      <c r="Q16" s="35">
         <v>41954</v>
       </c>
-      <c r="R16" s="61">
+      <c r="R16" s="36">
         <v>41961</v>
       </c>
-      <c r="S16" s="60">
+      <c r="S16" s="35">
         <v>41968</v>
       </c>
-      <c r="T16" s="58">
+      <c r="T16" s="33">
         <v>41975</v>
       </c>
       <c r="U16" s="6">
@@ -1321,311 +1324,311 @@
     </row>
     <row r="17" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I17" s="29"/>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41" t="s">
+      <c r="K17" s="48"/>
+      <c r="L17" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="40" t="s">
+      <c r="M17" s="48"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="42"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="50"/>
       <c r="U17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X17" s="30" t="s">
+      <c r="X17" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="63" t="s">
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
       <c r="AI17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I18" s="29"/>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="46" t="s">
+      <c r="K18" s="59"/>
+      <c r="L18" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="49" t="s">
+      <c r="M18" s="59"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31" t="s">
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31" t="s">
+      <c r="R18" s="61"/>
+      <c r="S18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="32"/>
+      <c r="T18" s="63"/>
       <c r="U18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="X18" s="26">
         <v>41912</v>
       </c>
-      <c r="Y18" s="75" t="s">
+      <c r="Y18" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="62" t="s">
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AC18" s="64">
+      <c r="AC18" s="38">
         <v>41912</v>
       </c>
-      <c r="AD18" s="76" t="s">
+      <c r="AD18" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="66" t="s">
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="40" t="s">
         <v>3</v>
       </c>
       <c r="AI18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AJ18" s="53" t="s">
+      <c r="AJ18" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="AK18" s="53"/>
+      <c r="AK18" s="69"/>
     </row>
     <row r="19" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="33" t="s">
+      <c r="K19" s="55"/>
+      <c r="L19" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="44"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="33" t="s">
+      <c r="M19" s="54"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="37" t="s">
+      <c r="P19" s="64"/>
+      <c r="Q19" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="34"/>
-      <c r="S19" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" s="39"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" s="55"/>
       <c r="U19" s="18" t="s">
         <v>41</v>
       </c>
       <c r="X19" s="26">
         <v>41933</v>
       </c>
-      <c r="Y19" s="75" t="s">
+      <c r="Y19" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="62" t="s">
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AC19" s="64">
+      <c r="AC19" s="38">
         <v>41933</v>
       </c>
-      <c r="AD19" s="76" t="s">
+      <c r="AD19" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="66" t="s">
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="40" t="s">
         <v>4</v>
       </c>
       <c r="AI19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AJ19" s="54" t="s">
+      <c r="AJ19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AK19" s="54"/>
+      <c r="AK19" s="74"/>
     </row>
     <row r="20" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="35" t="s">
+      <c r="K20" s="52"/>
+      <c r="L20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="35" t="s">
+      <c r="M20" s="57"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="38" t="s">
+      <c r="P20" s="65"/>
+      <c r="Q20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="36"/>
-      <c r="S20" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="T20" s="74"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="68"/>
       <c r="U20" s="19"/>
       <c r="X20" s="26">
         <v>41961</v>
       </c>
-      <c r="Y20" s="75" t="s">
+      <c r="Y20" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="62" t="s">
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AC20" s="64">
+      <c r="AC20" s="38">
         <v>41975</v>
       </c>
-      <c r="AD20" s="76" t="s">
+      <c r="AD20" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="66" t="s">
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AI20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AJ20" s="55" t="s">
+      <c r="AJ20" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="AK20" s="55"/>
+      <c r="AK20" s="75"/>
     </row>
     <row r="21" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="33" t="s">
+      <c r="K21" s="55"/>
+      <c r="L21" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="44"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="33" t="s">
+      <c r="M21" s="54"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="37" t="s">
+      <c r="P21" s="64"/>
+      <c r="Q21" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="34"/>
-      <c r="S21" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" s="39"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" s="55"/>
       <c r="U21" s="18" t="s">
         <v>41</v>
       </c>
       <c r="X21" s="26">
         <v>41982</v>
       </c>
-      <c r="Y21" s="75" t="s">
+      <c r="Y21" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="62" t="s">
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AC21" s="65">
+      <c r="AC21" s="39">
         <v>41982</v>
       </c>
-      <c r="AD21" s="77" t="s">
+      <c r="AD21" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
       <c r="AG21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AI21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AJ21" s="54" t="s">
+      <c r="AJ21" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AK21" s="54"/>
+      <c r="AK21" s="74"/>
     </row>
     <row r="22" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="35" t="s">
+      <c r="K22" s="52"/>
+      <c r="L22" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="35" t="s">
+      <c r="M22" s="57"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="38" t="s">
+      <c r="P22" s="65"/>
+      <c r="Q22" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="36"/>
-      <c r="S22" s="38" t="s">
+      <c r="R22" s="65"/>
+      <c r="S22" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="T22" s="43"/>
+      <c r="T22" s="52"/>
       <c r="U22" s="16" t="s">
         <v>41</v>
       </c>
       <c r="AB22" s="3"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
       <c r="AI22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AJ22" s="55" t="s">
+      <c r="AJ22" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AK22" s="55"/>
+      <c r="AK22" s="75"/>
     </row>
     <row r="23" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I23" s="29"/>
@@ -1674,64 +1677,92 @@
     </row>
     <row r="26" spans="7:37" x14ac:dyDescent="0.25">
       <c r="G26" s="27"/>
-      <c r="V26" s="51"/>
+      <c r="V26" s="31"/>
     </row>
     <row r="27" spans="7:37" x14ac:dyDescent="0.25">
       <c r="G27" s="25"/>
-      <c r="V27" s="50"/>
+      <c r="V27" s="30"/>
     </row>
     <row r="28" spans="7:37" x14ac:dyDescent="0.25">
       <c r="G28" s="21"/>
-      <c r="V28" s="51"/>
+      <c r="V28" s="31"/>
     </row>
     <row r="29" spans="7:37" x14ac:dyDescent="0.25">
       <c r="G29" s="21"/>
-      <c r="V29" s="51"/>
+      <c r="V29" s="31"/>
     </row>
     <row r="30" spans="7:37" x14ac:dyDescent="0.25">
       <c r="G30" s="21"/>
-      <c r="V30" s="51"/>
+      <c r="V30" s="31"/>
     </row>
     <row r="31" spans="7:37" x14ac:dyDescent="0.25">
       <c r="G31" s="21"/>
-      <c r="V31" s="51"/>
+      <c r="V31" s="31"/>
     </row>
     <row r="32" spans="7:37" x14ac:dyDescent="0.25">
       <c r="G32" s="28"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
     </row>
     <row r="33" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G33" s="21"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="51"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="31"/>
     </row>
     <row r="34" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G34" s="21"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="51"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="31"/>
     </row>
     <row r="35" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G35" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AJ19:AK19"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="AJ22:AK22"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="O17:T17"/>
@@ -1748,34 +1779,6 @@
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AJ19:AK19"/>
-    <mergeCell ref="AJ20:AK20"/>
-    <mergeCell ref="AJ22:AK22"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AD20:AF20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1791,7 +1794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1803,7 +1806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Projektmanagement/Analyse_Projektmanagement.xlsx
+++ b/Documents/Projektmanagement/Analyse_Projektmanagement.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -215,16 +215,16 @@
     <t>E, EA, ECA</t>
   </si>
   <si>
-    <t>E, EBCB, ECC</t>
-  </si>
-  <si>
-    <t>E, EBB, ECD</t>
-  </si>
-  <si>
-    <t>E, EBC, ECAA</t>
-  </si>
-  <si>
     <t>E, EBC, EBCA</t>
+  </si>
+  <si>
+    <t>E, EBB, ECC, ECD</t>
+  </si>
+  <si>
+    <t>E, EBCB, ECA, ECC</t>
+  </si>
+  <si>
+    <t>E, EBC, ECA, ECAA, ECB</t>
   </si>
 </sst>
 </file>
@@ -630,6 +630,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,24 +699,12 @@
     <xf numFmtId="16" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,56 +717,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22:T22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,250 +1324,250 @@
     </row>
     <row r="17" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I17" s="29"/>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49" t="s">
+      <c r="K17" s="68"/>
+      <c r="L17" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="48" t="s">
+      <c r="M17" s="68"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="50"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="70"/>
       <c r="U17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X17" s="71" t="s">
+      <c r="X17" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="72" t="s">
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
       <c r="AI17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I18" s="29"/>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="58" t="s">
+      <c r="K18" s="75"/>
+      <c r="L18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="62" t="s">
+      <c r="M18" s="75"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61" t="s">
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61" t="s">
+      <c r="R18" s="57"/>
+      <c r="S18" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="63"/>
+      <c r="T18" s="58"/>
       <c r="U18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="X18" s="26">
         <v>41912</v>
       </c>
-      <c r="Y18" s="76" t="s">
+      <c r="Y18" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
       <c r="AB18" s="37" t="s">
         <v>22</v>
       </c>
       <c r="AC18" s="38">
         <v>41912</v>
       </c>
-      <c r="AD18" s="77" t="s">
+      <c r="AD18" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
       <c r="AG18" s="40" t="s">
         <v>3</v>
       </c>
       <c r="AI18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AJ18" s="69" t="s">
+      <c r="AJ18" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AK18" s="69"/>
+      <c r="AK18" s="48"/>
     </row>
     <row r="19" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="55"/>
-      <c r="L19" s="53" t="s">
+      <c r="K19" s="65"/>
+      <c r="L19" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="53" t="s">
+      <c r="M19" s="72"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="66" t="s">
+      <c r="P19" s="60"/>
+      <c r="Q19" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="64"/>
-      <c r="S19" s="66" t="s">
+      <c r="R19" s="60"/>
+      <c r="S19" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="T19" s="55"/>
+      <c r="T19" s="65"/>
       <c r="U19" s="18" t="s">
         <v>41</v>
       </c>
       <c r="X19" s="26">
         <v>41933</v>
       </c>
-      <c r="Y19" s="76" t="s">
+      <c r="Y19" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
       <c r="AB19" s="37" t="s">
         <v>23</v>
       </c>
       <c r="AC19" s="38">
         <v>41933</v>
       </c>
-      <c r="AD19" s="77" t="s">
+      <c r="AD19" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
       <c r="AG19" s="40" t="s">
         <v>4</v>
       </c>
       <c r="AI19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AJ19" s="74" t="s">
+      <c r="AJ19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AK19" s="74"/>
+      <c r="AK19" s="53"/>
     </row>
     <row r="20" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="56" t="s">
+      <c r="K20" s="71"/>
+      <c r="L20" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="57"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="56" t="s">
+      <c r="M20" s="73"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="51" t="s">
+      <c r="P20" s="62"/>
+      <c r="Q20" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="68"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="67"/>
       <c r="U20" s="19"/>
       <c r="X20" s="26">
         <v>41961</v>
       </c>
-      <c r="Y20" s="76" t="s">
+      <c r="Y20" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
       <c r="AB20" s="37" t="s">
         <v>24</v>
       </c>
       <c r="AC20" s="38">
         <v>41975</v>
       </c>
-      <c r="AD20" s="77" t="s">
+      <c r="AD20" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
       <c r="AG20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AI20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AJ20" s="75" t="s">
+      <c r="AJ20" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AK20" s="75"/>
+      <c r="AK20" s="54"/>
     </row>
     <row r="21" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="53" t="s">
+      <c r="K21" s="65"/>
+      <c r="L21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="54"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="53" t="s">
+      <c r="M21" s="72"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="66" t="s">
+      <c r="P21" s="60"/>
+      <c r="Q21" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="64"/>
-      <c r="S21" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="T21" s="55"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="T21" s="65"/>
       <c r="U21" s="18" t="s">
         <v>41</v>
       </c>
       <c r="X21" s="26">
         <v>41982</v>
       </c>
-      <c r="Y21" s="76" t="s">
+      <c r="Y21" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
       <c r="AB21" s="37" t="s">
         <v>25</v>
       </c>
@@ -1585,36 +1585,36 @@
       <c r="AI21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AJ21" s="74" t="s">
+      <c r="AJ21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AK21" s="74"/>
+      <c r="AK21" s="53"/>
     </row>
     <row r="22" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="56" t="s">
+      <c r="K22" s="71"/>
+      <c r="L22" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="56" t="s">
+      <c r="M22" s="73"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="51" t="s">
+      <c r="P22" s="62"/>
+      <c r="Q22" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="65"/>
-      <c r="S22" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="T22" s="52"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="71"/>
       <c r="U22" s="16" t="s">
         <v>41</v>
       </c>
@@ -1625,10 +1625,10 @@
       <c r="AI22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AJ22" s="75" t="s">
+      <c r="AJ22" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="AK22" s="75"/>
+      <c r="AK22" s="54"/>
     </row>
     <row r="23" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I23" s="29"/>
@@ -1716,8 +1716,8 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
       <c r="V33" s="31"/>
     </row>
     <row r="34" spans="7:22" x14ac:dyDescent="0.25">
@@ -1726,8 +1726,8 @@
       <c r="Q34" s="31"/>
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
       <c r="V34" s="31"/>
     </row>
     <row r="35" spans="7:22" x14ac:dyDescent="0.25">
@@ -1735,6 +1735,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="AJ18:AK18"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="T34:U34"/>
@@ -1751,34 +1779,6 @@
     <mergeCell ref="AD18:AF18"/>
     <mergeCell ref="AD19:AF19"/>
     <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
